--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N2">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O2">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P2">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q2">
-        <v>50.38533769150016</v>
+        <v>54.3811285630111</v>
       </c>
       <c r="R2">
-        <v>50.38533769150016</v>
+        <v>489.4301570670999</v>
       </c>
       <c r="S2">
-        <v>0.0003201888974856142</v>
+        <v>0.0002803272522505432</v>
       </c>
       <c r="T2">
-        <v>0.0003201888974856142</v>
+        <v>0.0002803272522505432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N3">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O3">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P3">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q3">
-        <v>105.2535211614725</v>
+        <v>110.2955711708333</v>
       </c>
       <c r="R3">
-        <v>105.2535211614725</v>
+        <v>992.6601405374998</v>
       </c>
       <c r="S3">
-        <v>0.0006688653969834541</v>
+        <v>0.0005685585279073132</v>
       </c>
       <c r="T3">
-        <v>0.0006688653969834541</v>
+        <v>0.0005685585279073132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N4">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O4">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P4">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q4">
-        <v>1460.536575393083</v>
+        <v>1535.674704061678</v>
       </c>
       <c r="R4">
-        <v>1460.536575393083</v>
+        <v>13821.0723365551</v>
       </c>
       <c r="S4">
-        <v>0.009281422279549719</v>
+        <v>0.007916192280589915</v>
       </c>
       <c r="T4">
-        <v>0.009281422279549719</v>
+        <v>0.007916192280589915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N5">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O5">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P5">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q5">
-        <v>2068.491640396564</v>
+        <v>2171.698912463511</v>
       </c>
       <c r="R5">
-        <v>2068.491640396564</v>
+        <v>19545.2902121716</v>
       </c>
       <c r="S5">
-        <v>0.01314485697906743</v>
+        <v>0.01119480976090799</v>
       </c>
       <c r="T5">
-        <v>0.01314485697906743</v>
+        <v>0.01119480976090799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N6">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O6">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P6">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q6">
-        <v>55.3263641168397</v>
+        <v>59.75620226637778</v>
       </c>
       <c r="R6">
-        <v>55.3263641168397</v>
+        <v>537.8058203974</v>
       </c>
       <c r="S6">
-        <v>0.0003515881472686248</v>
+        <v>0.0003080350192962939</v>
       </c>
       <c r="T6">
-        <v>0.0003515881472686248</v>
+        <v>0.0003080350192962939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N7">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O7">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P7">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q7">
-        <v>283.4447697321907</v>
+        <v>295.8528106421469</v>
       </c>
       <c r="R7">
-        <v>283.4447697321907</v>
+        <v>2662.675295779322</v>
       </c>
       <c r="S7">
-        <v>0.001801235686347779</v>
+        <v>0.001525080623911957</v>
       </c>
       <c r="T7">
-        <v>0.001801235686347779</v>
+        <v>0.001525080623911957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N8">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O8">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P8">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q8">
-        <v>592.107971008968</v>
+        <v>600.0473986938749</v>
       </c>
       <c r="R8">
-        <v>592.107971008968</v>
+        <v>5400.426588244874</v>
       </c>
       <c r="S8">
-        <v>0.003762729538315431</v>
+        <v>0.003093161965203363</v>
       </c>
       <c r="T8">
-        <v>0.003762729538315431</v>
+        <v>0.003093161965203363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N9">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O9">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P9">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q9">
-        <v>8216.30800278574</v>
+        <v>8354.620241142307</v>
       </c>
       <c r="R9">
-        <v>8216.30800278574</v>
+        <v>75191.58217028076</v>
       </c>
       <c r="S9">
-        <v>0.05221301913111911</v>
+        <v>0.04306692041307122</v>
       </c>
       <c r="T9">
-        <v>0.05221301913111911</v>
+        <v>0.04306692041307122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N10">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O10">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P10">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q10">
-        <v>11636.38398724224</v>
+        <v>11814.81966444221</v>
       </c>
       <c r="R10">
-        <v>11636.38398724224</v>
+        <v>106333.3769799799</v>
       </c>
       <c r="S10">
-        <v>0.07394692841808392</v>
+        <v>0.06090377342079534</v>
       </c>
       <c r="T10">
-        <v>0.07394692841808392</v>
+        <v>0.06090377342079534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N11">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O11">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P11">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q11">
-        <v>311.240715170645</v>
+        <v>325.095136143118</v>
       </c>
       <c r="R11">
-        <v>311.240715170645</v>
+        <v>2925.856225288062</v>
       </c>
       <c r="S11">
-        <v>0.001977873445114063</v>
+        <v>0.00167582079745589</v>
       </c>
       <c r="T11">
-        <v>0.001977873445114063</v>
+        <v>0.001675820797455889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N12">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O12">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P12">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q12">
-        <v>995.5010242496296</v>
+        <v>1049.672724105424</v>
       </c>
       <c r="R12">
-        <v>995.5010242496296</v>
+        <v>9447.054516948814</v>
       </c>
       <c r="S12">
-        <v>0.006326212942184178</v>
+        <v>0.005410918792718102</v>
       </c>
       <c r="T12">
-        <v>0.006326212942184178</v>
+        <v>0.005410918792718102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N13">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O13">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P13">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q13">
-        <v>2079.57300521977</v>
+        <v>2128.941706561041</v>
       </c>
       <c r="R13">
-        <v>2079.57300521977</v>
+        <v>19160.47535904937</v>
       </c>
       <c r="S13">
-        <v>0.01321527687001076</v>
+        <v>0.01097440223422965</v>
       </c>
       <c r="T13">
-        <v>0.01321527687001076</v>
+        <v>0.01097440223422965</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N14">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O14">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P14">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q14">
-        <v>28856.91995675836</v>
+        <v>29641.82415016355</v>
       </c>
       <c r="R14">
-        <v>28856.91995675836</v>
+        <v>266776.417351472</v>
       </c>
       <c r="S14">
-        <v>0.1833800428679826</v>
+        <v>0.1527995342369748</v>
       </c>
       <c r="T14">
-        <v>0.1833800428679826</v>
+        <v>0.1527995342369748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N15">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O15">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P15">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q15">
-        <v>40868.7455718681</v>
+        <v>41918.45909819675</v>
       </c>
       <c r="R15">
-        <v>40868.7455718681</v>
+        <v>377266.1318837708</v>
       </c>
       <c r="S15">
-        <v>0.2597128288868061</v>
+        <v>0.2160839020462511</v>
       </c>
       <c r="T15">
-        <v>0.2597128288868061</v>
+        <v>0.2160839020462511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N16">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O16">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P16">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q16">
-        <v>1093.124600723144</v>
+        <v>1153.423205303012</v>
       </c>
       <c r="R16">
-        <v>1093.124600723144</v>
+        <v>10380.80884772711</v>
       </c>
       <c r="S16">
-        <v>0.00694659154341622</v>
+        <v>0.005945738280329362</v>
       </c>
       <c r="T16">
-        <v>0.00694659154341622</v>
+        <v>0.005945738280329361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N17">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O17">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P17">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q17">
-        <v>734.5735802237641</v>
+        <v>1207.669097218804</v>
       </c>
       <c r="R17">
-        <v>734.5735802237641</v>
+        <v>10869.02187496924</v>
       </c>
       <c r="S17">
-        <v>0.004668070425845042</v>
+        <v>0.006225368406228905</v>
       </c>
       <c r="T17">
-        <v>0.004668070425845042</v>
+        <v>0.006225368406228905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N18">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O18">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P18">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q18">
-        <v>1534.503079926437</v>
+        <v>2449.38927129425</v>
       </c>
       <c r="R18">
-        <v>1534.503079926437</v>
+        <v>22044.50344164825</v>
       </c>
       <c r="S18">
-        <v>0.009751464847933549</v>
+        <v>0.01262626543909037</v>
       </c>
       <c r="T18">
-        <v>0.009751464847933549</v>
+        <v>0.01262626543909037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N19">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O19">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P19">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q19">
-        <v>21293.32917848524</v>
+        <v>34103.50120496345</v>
       </c>
       <c r="R19">
-        <v>21293.32917848524</v>
+        <v>306931.510844671</v>
       </c>
       <c r="S19">
-        <v>0.1353149131440197</v>
+        <v>0.175798866951303</v>
       </c>
       <c r="T19">
-        <v>0.1353149131440197</v>
+        <v>0.175798866951303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N20">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O20">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P20">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q20">
-        <v>30156.77535501283</v>
+        <v>48228.01097272131</v>
       </c>
       <c r="R20">
-        <v>30156.77535501283</v>
+        <v>434052.0987544919</v>
       </c>
       <c r="S20">
-        <v>0.1916403679134577</v>
+        <v>0.2486087757782905</v>
       </c>
       <c r="T20">
-        <v>0.1916403679134577</v>
+        <v>0.2486087757782905</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N21">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O21">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P21">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q21">
-        <v>806.609367568585</v>
+        <v>1327.036064737839</v>
       </c>
       <c r="R21">
-        <v>806.609367568585</v>
+        <v>11943.32458264055</v>
       </c>
       <c r="S21">
-        <v>0.005125843666756303</v>
+        <v>0.006840688736981487</v>
       </c>
       <c r="T21">
-        <v>0.005125843666756303</v>
+        <v>0.006840688736981486</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N22">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O22">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P22">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q22">
-        <v>56.07272257007653</v>
+        <v>75.53730388055477</v>
       </c>
       <c r="R22">
-        <v>56.07272257007653</v>
+        <v>679.8357349249929</v>
       </c>
       <c r="S22">
-        <v>0.0003563311082414017</v>
+        <v>0.0003893844316731064</v>
       </c>
       <c r="T22">
-        <v>0.0003563311082414017</v>
+        <v>0.0003893844316731064</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N23">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O23">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P23">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q23">
-        <v>117.1343045817583</v>
+        <v>153.2044350009583</v>
       </c>
       <c r="R23">
-        <v>117.1343045817583</v>
+        <v>1378.839915008625</v>
       </c>
       <c r="S23">
-        <v>0.0007443654356633261</v>
+        <v>0.0007897478303829741</v>
       </c>
       <c r="T23">
-        <v>0.0007443654356633261</v>
+        <v>0.000789747830382974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N24">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O24">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P24">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q24">
-        <v>1625.39869628147</v>
+        <v>2133.106278733781</v>
       </c>
       <c r="R24">
-        <v>1625.39869628147</v>
+        <v>19197.95650860403</v>
       </c>
       <c r="S24">
-        <v>0.01032908858770464</v>
+        <v>0.0109958700320638</v>
       </c>
       <c r="T24">
-        <v>0.01032908858770464</v>
+        <v>0.0109958700320638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N25">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O25">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P25">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q25">
-        <v>2301.978377135011</v>
+        <v>3016.56631670947</v>
       </c>
       <c r="R25">
-        <v>2301.978377135011</v>
+        <v>27149.09685038523</v>
       </c>
       <c r="S25">
-        <v>0.01462861920512489</v>
+        <v>0.01554998524561486</v>
       </c>
       <c r="T25">
-        <v>0.01462861920512489</v>
+        <v>0.01554998524561486</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N26">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O26">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P26">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q26">
-        <v>61.57148107112791</v>
+        <v>83.00347066378245</v>
       </c>
       <c r="R26">
-        <v>61.57148107112791</v>
+        <v>747.031235974042</v>
       </c>
       <c r="S26">
-        <v>0.0003912746355185504</v>
+        <v>0.0004278714964783427</v>
       </c>
       <c r="T26">
-        <v>0.0003912746355185504</v>
+        <v>0.0004278714964783426</v>
       </c>
     </row>
   </sheetData>
